--- a/Gantt Charts/Milestone3-GanttChart.xlsx
+++ b/Gantt Charts/Milestone3-GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shana/Desktop/CMPE 131/calApp/Calendar-Scheduling-App-master/Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7BF7D-1F09-9B4B-80EB-85E18454405A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF6EC7D-112A-2442-B6A3-7008F3384565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="26920" windowHeight="17480" xr2:uid="{AA7B69DF-3B17-C04C-9150-938323FE9379}"/>
   </bookViews>
@@ -714,38 +714,38 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="8" xfId="14" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="8" xfId="14" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:BN175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,81 +1094,81 @@
     <col min="69" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="46" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:66" s="49" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
     </row>
     <row r="2" spans="1:66" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="22"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
@@ -1242,22 +1242,22 @@
       <c r="BN2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5"/>
@@ -1321,12 +1321,12 @@
       <c r="BN3" s="6"/>
     </row>
     <row r="4" spans="1:66" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="12">
         <v>43947</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="K4" s="11">
         <v>30</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="46">
         <v>43952</v>
       </c>
       <c r="M4" s="11">
@@ -1414,11 +1414,17 @@
       <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="29">
+        <v>43947</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1479,7 +1485,7 @@
       <c r="BN5" s="2"/>
     </row>
     <row r="6" spans="1:66" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="29">
@@ -1494,7 +1500,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1566,9 +1572,9 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1708,9 +1714,9 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1782,9 +1788,9 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1856,9 +1862,9 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1930,9 +1936,9 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2075,8 +2081,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2149,8 +2155,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2275,7 +2281,7 @@
       <c r="BN16" s="2"/>
     </row>
     <row r="17" spans="1:66" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="29">
@@ -2293,7 +2299,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3446,9 +3452,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="A3:A4" xr:uid="{DE19D017-F753-9340-9B91-166526B028E1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="P2" xr:uid="{AF31CE32-1CA2-014D-AD02-59BB94C6851E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="L2" xr:uid="{6DD34810-F035-CA45-BE1C-F3677A0D3BFA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="M2 I2" xr:uid="{DB1E9FAD-1F0C-9A4B-A530-B1B2314CD711}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="M2 I2 G5:H5" xr:uid="{DB1E9FAD-1F0C-9A4B-A530-B1B2314CD711}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="F2" xr:uid="{2BAFCFB1-7B74-E646-8171-7AC2A48CCDBF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="H6:I6 G5:H5 C2" xr:uid="{B12D7A5D-6678-2247-9E84-D505C287109C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="H6:I6 C2" xr:uid="{B12D7A5D-6678-2247-9E84-D505C287109C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Gantt Charts/Milestone3-GanttChart.xlsx
+++ b/Gantt Charts/Milestone3-GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shana/Desktop/CMPE 131/calApp/Calendar-Scheduling-App-master/Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF6EC7D-112A-2442-B6A3-7008F3384565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1EFB4-87A6-DD43-912B-288335E51988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="26920" windowHeight="17480" xr2:uid="{AA7B69DF-3B17-C04C-9150-938323FE9379}"/>
   </bookViews>
@@ -272,7 +272,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +317,12 @@
     <fill>
       <patternFill patternType="lightUp">
         <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -581,7 +587,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1080,7 +1089,7 @@
   <dimension ref="A1:BN175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1494,13 +1503,17 @@
       <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="29">
+        <v>43948</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1568,15 +1581,19 @@
       <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="29">
+        <v>43948</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1710,12 +1727,16 @@
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="29">
+        <v>43948</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1784,13 +1805,17 @@
       <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="29">
+        <v>43948</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1858,13 +1883,17 @@
       <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="29">
+        <v>43948</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1932,13 +1961,17 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="29">
+        <v>43948</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2074,15 +2107,19 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="29">
+        <v>43951</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2148,15 +2185,19 @@
       <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="29">
+        <v>43952</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3450,11 +3491,11 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="C3:C4" xr:uid="{9EF1E97C-CF64-7948-A8CD-EA30BA312303}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="B3:B4" xr:uid="{8971EE31-53FE-6F44-A4E7-A0061F08C39F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="A3:A4" xr:uid="{DE19D017-F753-9340-9B91-166526B028E1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="P2" xr:uid="{AF31CE32-1CA2-014D-AD02-59BB94C6851E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="P2 K7:L7" xr:uid="{AF31CE32-1CA2-014D-AD02-59BB94C6851E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="L2" xr:uid="{6DD34810-F035-CA45-BE1C-F3677A0D3BFA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="M2 I2 G5:H5" xr:uid="{DB1E9FAD-1F0C-9A4B-A530-B1B2314CD711}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="M2 I2 G5:H5 J10:J12 H9:I12 L14:L15 K14 H6" xr:uid="{DB1E9FAD-1F0C-9A4B-A530-B1B2314CD711}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="F2" xr:uid="{2BAFCFB1-7B74-E646-8171-7AC2A48CCDBF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="H6:I6 C2" xr:uid="{B12D7A5D-6678-2247-9E84-D505C287109C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="C2" xr:uid="{B12D7A5D-6678-2247-9E84-D505C287109C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Gantt Charts/Milestone3-GanttChart.xlsx
+++ b/Gantt Charts/Milestone3-GanttChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shana/Desktop/CMPE 131/calApp/Calendar-Scheduling-App-master/Gantt Charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shana/Desktop/CMPE 131/calApp/Calendar-Scheduling-App/Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1EFB4-87A6-DD43-912B-288335E51988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD490D-A28A-BB43-9A6D-7595DC924E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="26920" windowHeight="17480" xr2:uid="{AA7B69DF-3B17-C04C-9150-938323FE9379}"/>
   </bookViews>
@@ -729,6 +729,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,9 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382B5C2B-D08E-CD4E-BF62-F343AB5B8050}">
   <dimension ref="A1:BN175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,81 +1103,81 @@
     <col min="69" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="49" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:66" s="50" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
     </row>
     <row r="2" spans="1:66" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="22"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
@@ -1251,22 +1251,22 @@
       <c r="BN2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5"/>
@@ -1330,12 +1330,12 @@
       <c r="BN3" s="6"/>
     </row>
     <row r="4" spans="1:66" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="12">
         <v>43947</v>
       </c>
@@ -1507,16 +1507,18 @@
         <v>43948</v>
       </c>
       <c r="E6" s="8">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1587,11 +1589,13 @@
       <c r="E7" s="8">
         <v>5</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="1"/>
@@ -1733,7 +1737,9 @@
       <c r="E9" s="8">
         <v>2</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1811,7 +1817,9 @@
       <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
@@ -1889,7 +1897,9 @@
       <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -2113,7 +2123,9 @@
       <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2189,16 +2201,18 @@
         <v>43952</v>
       </c>
       <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="47"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="27"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2331,7 +2345,9 @@
       <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="29">
+        <v>43952</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="G17" s="1"/>
@@ -2339,8 +2355,8 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="47"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3491,10 +3507,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="C3:C4" xr:uid="{9EF1E97C-CF64-7948-A8CD-EA30BA312303}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="B3:B4" xr:uid="{8971EE31-53FE-6F44-A4E7-A0061F08C39F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="A3:A4" xr:uid="{DE19D017-F753-9340-9B91-166526B028E1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="P2 K7:L7" xr:uid="{AF31CE32-1CA2-014D-AD02-59BB94C6851E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="P2 K7:L7 M15 K6:M6" xr:uid="{AF31CE32-1CA2-014D-AD02-59BB94C6851E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="L2" xr:uid="{6DD34810-F035-CA45-BE1C-F3677A0D3BFA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="M2 I2 G5:H5 J10:J12 H9:I12 L14:L15 K14 H6" xr:uid="{DB1E9FAD-1F0C-9A4B-A530-B1B2314CD711}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="F2" xr:uid="{2BAFCFB1-7B74-E646-8171-7AC2A48CCDBF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="F2 L17:M17" xr:uid="{2BAFCFB1-7B74-E646-8171-7AC2A48CCDBF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="C2" xr:uid="{B12D7A5D-6678-2247-9E84-D505C287109C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Charts/Milestone3-GanttChart.xlsx
+++ b/Gantt Charts/Milestone3-GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shana/Desktop/CMPE 131/calApp/Calendar-Scheduling-App/Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD490D-A28A-BB43-9A6D-7595DC924E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2FE3E-3D32-B148-A2B8-876E58F098F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="26920" windowHeight="17480" xr2:uid="{AA7B69DF-3B17-C04C-9150-938323FE9379}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Plan Duration</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>After selecting a date, be able to view available times</t>
-  </si>
-  <si>
-    <t>Sphinx documentation</t>
   </si>
   <si>
     <t>Create Meetings Page to view list of appointments</t>
@@ -1088,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382B5C2B-D08E-CD4E-BF62-F343AB5B8050}">
   <dimension ref="A1:BN175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1102,7 @@
   <sheetData>
     <row r="1" spans="1:66" s="50" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="6" spans="1:66" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="29">
         <v>43948</v>
@@ -1977,7 +1974,9 @@
       <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -2335,19 +2334,11 @@
       <c r="BM16" s="2"/>
       <c r="BN16" s="2"/>
     </row>
-    <row r="17" spans="1:66" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="29">
-        <v>43953</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29">
-        <v>43952</v>
-      </c>
+    <row r="17" spans="1:66" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="G17" s="1"/>
@@ -2355,8 +2346,8 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2411,7 +2402,7 @@
       <c r="BM17" s="2"/>
       <c r="BN17" s="2"/>
     </row>
-    <row r="18" spans="1:66" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3510,7 +3501,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="P2 K7:L7 M15 K6:M6" xr:uid="{AF31CE32-1CA2-014D-AD02-59BB94C6851E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="L2" xr:uid="{6DD34810-F035-CA45-BE1C-F3677A0D3BFA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="M2 I2 G5:H5 J10:J12 H9:I12 L14:L15 K14 H6" xr:uid="{DB1E9FAD-1F0C-9A4B-A530-B1B2314CD711}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="F2 L17:M17" xr:uid="{2BAFCFB1-7B74-E646-8171-7AC2A48CCDBF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="F2" xr:uid="{2BAFCFB1-7B74-E646-8171-7AC2A48CCDBF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="C2" xr:uid="{B12D7A5D-6678-2247-9E84-D505C287109C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
